--- a/Git_Memo.xlsx
+++ b/Git_Memo.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="196">
   <si>
     <t>Tạo folder sau đó vào folder nhấp chuột phải chọn GIT BASH:</t>
   </si>
@@ -612,6 +612,9 @@
   </si>
   <si>
     <t>aaaa</t>
+  </si>
+  <si>
+    <t>dsdsdsd</t>
   </si>
 </sst>
 </file>
@@ -926,10 +929,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A285"/>
+  <dimension ref="A1:C285"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1009,62 +1012,65 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>25</v>
       </c>
